--- a/xlsx/田纳西州_intext.xlsx
+++ b/xlsx/田纳西州_intext.xlsx
@@ -15,1299 +15,1296 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="430">
   <si>
     <t>田纳西州</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E%E5%B7%9E%E6%97%97</t>
+  </si>
+  <si>
+    <t>田纳西州州旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州昵称列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州首府列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E4%BB%80%E7%BB%B4%E5%B0%94</t>
+  </si>
+  <si>
+    <t>纳什维尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>孟菲斯 (田纳西州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份人口密度列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
+  </si>
+  <si>
+    <t>en-List of U.S. states by elevation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份依加入联邦顺序排列列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Tennessee</t>
+  </si>
+  <si>
+    <t>en-List of Governors of Tennessee</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%93%88%E6%96%AF%E6%8B%89%E5%A7%86</t>
+  </si>
+  <si>
+    <t>比尔·哈斯拉姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Tennessee</t>
+  </si>
+  <si>
+    <t>en-List of lieutenant governors of Tennessee</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ron_Ramsey</t>
+  </si>
+  <si>
+    <t>en-Ron Ramsey</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Tennessee</t>
+  </si>
+  <si>
+    <t>en-List of United States Senators from Tennessee</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%A6%AC%E7%88%BE%C2%B7%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>拉马尔·亚历山大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AE%91%E4%BC%AF%C2%B7%E5%AF%87%E7%88%BE%E5%85%8B</t>
+  </si>
+  <si>
+    <t>鲍伯·寇尔克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Tennessee</t>
+  </si>
+  <si>
+    <t>en-United States congressional delegations from Tennessee</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州时区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E4%B8%9C%E9%83%A8%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美东部时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-5</t>
+  </si>
+  <si>
+    <t>UTC-5</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-4</t>
+  </si>
+  <si>
+    <t>UTC-4</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E4%B8%AD%E9%83%A8%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美中部时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-6</t>
+  </si>
+  <si>
+    <t>UTC-6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州缩写列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
+  </si>
+  <si>
+    <t>ISO 3166-2-US</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%B9%A1%E6%9D%91%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国乡村音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印第安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E9%9A%AA%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>探险家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%96%BE%E7%97%85</t>
+  </si>
+  <si>
+    <t>疾病</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%9C%BE%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>合众国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%BB%BA%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%C2%B7%E6%88%88%E7%88%BE</t>
+  </si>
+  <si>
+    <t>阿尔·戈尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>2000年美国总统选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>小布什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>肯塔基州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E8%8E%B1%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北卡罗莱那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西西比州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿肯色州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>田纳西河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B2%E7%A7%AF%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>冲积平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%83%9F%E5%B1%B1</t>
+  </si>
+  <si>
+    <t>大烟山</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%B6%BA%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>蓝岭山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E6%B0%B4%E9%87%8F</t>
+  </si>
+  <si>
+    <t>降水量</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%AB%E7%B1%B3</t>
+  </si>
+  <si>
+    <t>毫米</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E6%96%AF%E7%BB%B4%E5%B0%94_(%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>克拉克斯维尔 (田纳西州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>计划经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E6%B2%B3%E8%B0%B7%E7%AE%A1%E7%90%86%E5%B1%80</t>
+  </si>
+  <si>
+    <t>田纳西河谷管理局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E8%8A%B1</t>
+  </si>
+  <si>
+    <t>棉花</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%B1%86</t>
+  </si>
+  <si>
+    <t>大豆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B4%99%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>国际纸业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%BF%AB%E9%81%9E</t>
+  </si>
+  <si>
+    <t>联邦快递</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2</t>
+  </si>
+  <si>
+    <t>日产</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>拉美裔人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>非裔美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>罗马天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8D%97%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美南浸信会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>卫理公会派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>基督会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
+  </si>
+  <si>
+    <t>郡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>田纳西州行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%A1%94%E5%8A%AA%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>查塔努加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%85%8B%E6%96%AF%E7%B6%AD%E7%88%BE</t>
+  </si>
+  <si>
+    <t>诺克斯维尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%96%AF%E6%B3%A2%E7%89%B9</t>
+  </si>
+  <si>
+    <t>金斯波特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E9%80%8A%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>约翰逊城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%93%9D%E8%B0%83</t>
+  </si>
+  <si>
+    <t>蓝调</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E6%9D%91%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>乡村音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91</t>
+  </si>
+  <si>
+    <t>马丁·路德·金</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Elvis_Presley</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NASCAR</t>
+  </si>
+  <si>
+    <t>NASCAR</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A3%AB%E9%BA%A6%E9%82%A3</t>
+  </si>
+  <si>
+    <t>士麦那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2%E6%B1%BD%E8%BB%8A</t>
+  </si>
+  <si>
+    <t>日产汽车</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BD%A6</t>
+  </si>
+  <si>
+    <t>通用汽车</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%98%9F%E6%B1%BD%E8%BD%A6</t>
+  </si>
+  <si>
+    <t>土星汽车</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>田纳西大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E8%8F%B2%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>曼菲斯大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E6%8A%80%E8%A1%93%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>田纳西技术大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E5%BE%B7%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>范德堡大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>南方大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E7%BB%B4%E5%B0%94%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>马里维尔学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E6%96%90%E6%96%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>孟斐斯国际机场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E8%88%AA%E7%A9%BA</t>
+  </si>
+  <si>
+    <t>西北航空</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/24%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>24号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/40%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>40号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/55%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>55号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/65%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>65号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/75%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>75号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/81%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>81号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NFL</t>
+  </si>
+  <si>
+    <t>NFL</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E6%B3%B0%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>田纳西泰坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NCAA</t>
+  </si>
+  <si>
+    <t>NCAA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>小联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E7%93%A6%E5%9F%BA%E9%87%80%E9%85%92%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>密尔瓦基酿酒人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E7%B4%85%E9%9B%80</t>
+  </si>
+  <si>
+    <t>圣路易红雀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%B0%8F%E7%86%8A</t>
+  </si>
+  <si>
+    <t>芝加哥小熊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B0%B4%E6%89%8B</t>
+  </si>
+  <si>
+    <t>西雅图水手</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E5%A0%A4%E7%B4%85%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>辛辛那堤红人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%A4%AA%E7%A9%BA%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>休士顿太空人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%A4%A7%E9%83%BD%E6%9C%83</t>
+  </si>
+  <si>
+    <t>纽约大都会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E9%9B%99%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>明尼苏达双城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NBA</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E6%96%90%E6%96%AF%E7%81%B0%E7%86%8A</t>
+  </si>
+  <si>
+    <t>孟斐斯灰熊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NHL</t>
+  </si>
+  <si>
+    <t>NHL</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B6%AD%E6%96%AF%C2%B7%E6%99%AE%E9%87%8C%E6%96%AF%E8%90%8A</t>
+  </si>
+  <si>
+    <t>艾维斯·普里斯莱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A1%83%E8%8E%89%C2%B7%E5%B7%B4%E9%A0%93</t>
+  </si>
+  <si>
+    <t>桃莉·巴顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%8E%89%C2%B7%E5%B8%8C%E6%8B%89</t>
+  </si>
+  <si>
+    <t>麦莉·希拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%AF%94%E9%9B%B7%C2%B7%E5%B8%8C%E6%8B%89</t>
+  </si>
+  <si>
+    <t>罗比雷·希拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%A0%B9%C2%B7%E7%A6%8F%E5%85%8B%E6%96%AF</t>
+  </si>
+  <si>
+    <t>梅根·福克斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%BA%E5%B0%BC%C2%B7%E5%8D%A1%E4%BB%80</t>
+  </si>
+  <si>
+    <t>强尼·卡什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%C2%B7%E6%88%88%E5%B0%94</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%AF%E7%B8%BD%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%96%AF%E6%B1%80%C2%B7%E6%8F%90%E5%A7%86%E5%B8%83%E8%90%8A%E5%85%8B</t>
+  </si>
+  <si>
+    <t>贾斯汀·提姆布莱克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%8E%89%C2%B7%E5%A8%81%E5%BB%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>海莉·威廉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%8B%92%E7%B5%B2</t>
+  </si>
+  <si>
+    <t>泰勒丝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E5%98%89%E6%BE%8D</t>
+  </si>
+  <si>
+    <t>宋嘉澍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E5%AD%90%E8%89%AF</t>
+  </si>
+  <si>
+    <t>宋子良</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B2%BB%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佐治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>Template talk-美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康乃狄克州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>特拉华州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>夏威夷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱达荷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺伊州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>印第安纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>艾奥瓦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>堪萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易斯安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>缅因州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马里兰州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密歇根州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>明尼苏达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>蒙大拿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内布拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新罕布什尔州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新墨西哥州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄亥俄州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>奥克拉荷马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄勒冈州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗德岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛蒙特州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>华盛顿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>威斯康辛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>怀俄明州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>联邦地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>岛屿地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>美属萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>北马里亚纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
+  </si>
+  <si>
+    <t>美国本土外小岛屿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>威克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
+  </si>
+  <si>
+    <t>约翰斯顿环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>中途岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
+  </si>
+  <si>
+    <t>金曼礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
+  </si>
+  <si>
+    <t>帕迈拉环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贾维斯岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贝克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>豪兰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>纳瓦萨岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>巴霍努埃沃浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>塞拉尼拉浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>印第安保留地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>国际标准名称识别码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>法国国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_田纳西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E%E5%B7%9E%E6%97%97</t>
-  </si>
-  <si>
-    <t>田纳西州州旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州昵称列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州首府列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E4%BB%80%E7%BB%B4%E5%B0%94</t>
-  </si>
-  <si>
-    <t>纳什维尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>孟菲斯 (田納西州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州面积列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份人口密度列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
-  </si>
-  <si>
-    <t>en-List of U.S. states by elevation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份依加入联邦顺序排列列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Tennessee</t>
-  </si>
-  <si>
-    <t>en-List of Governors of Tennessee</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%93%88%E6%96%AF%E6%8B%89%E5%A7%86</t>
-  </si>
-  <si>
-    <t>比尔·哈斯拉姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>共和黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Tennessee</t>
-  </si>
-  <si>
-    <t>en-List of lieutenant governors of Tennessee</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ron_Ramsey</t>
-  </si>
-  <si>
-    <t>en-Ron Ramsey</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Tennessee</t>
-  </si>
-  <si>
-    <t>en-List of United States Senators from Tennessee</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%A6%AC%E7%88%BE%C2%B7%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>拉馬爾·亞歷山大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AE%91%E4%BC%AF%C2%B7%E5%AF%87%E7%88%BE%E5%85%8B</t>
-  </si>
-  <si>
-    <t>鮑伯·寇爾克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Tennessee</t>
-  </si>
-  <si>
-    <t>en-United States congressional delegations from Tennessee</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州时区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E4%B8%9C%E9%83%A8%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美东部时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-5</t>
-  </si>
-  <si>
-    <t>UTC-5</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-4</t>
-  </si>
-  <si>
-    <t>UTC-4</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E4%B8%AD%E9%83%A8%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美中部时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-6</t>
-  </si>
-  <si>
-    <t>UTC-6</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州縮寫列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
-  </si>
-  <si>
-    <t>ISO 3166-2-US</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%B9%A1%E6%9D%91%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国乡村音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印第安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E9%9A%AA%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>探險家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%96%BE%E7%97%85</t>
-  </si>
-  <si>
-    <t>疾病</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美國聯邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%9C%BE%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>合眾國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%BB%BA%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>重建時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%C2%B7%E6%88%88%E7%88%BE</t>
-  </si>
-  <si>
-    <t>阿爾·戈爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>2000年美國總統選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>小布什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>肯塔基州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E8%8E%B1%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北卡罗莱那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>乔治亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿拉巴马州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西西比州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿肯色州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密苏里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>田納西河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B2%E7%A7%AF%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>冲积平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%83%9F%E5%B1%B1</t>
-  </si>
-  <si>
-    <t>大烟山</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%B6%BA%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>藍嶺山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E6%B0%B4%E9%87%8F</t>
-  </si>
-  <si>
-    <t>降水量</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%AB%E7%B1%B3</t>
-  </si>
-  <si>
-    <t>毫米</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E6%96%AF%E7%BB%B4%E5%B0%94_(%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>克拉克斯维尔 (田纳西州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%95%AD%E6%A2%9D</t>
-  </si>
-  <si>
-    <t>大蕭條</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>計劃經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E6%B2%B3%E8%B0%B7%E7%AE%A1%E7%90%86%E5%B1%80</t>
-  </si>
-  <si>
-    <t>田納西河谷管理局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E8%8A%B1</t>
-  </si>
-  <si>
-    <t>棉花</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%B1%86</t>
-  </si>
-  <si>
-    <t>大豆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B4%99%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>國際紙業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%BF%AB%E9%81%9E</t>
-  </si>
-  <si>
-    <t>聯邦快遞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2</t>
-  </si>
-  <si>
-    <t>日產</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>拉美裔人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>非裔美國人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
-  </si>
-  <si>
-    <t>愛爾蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>羅馬天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8D%97%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美南浸信會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>衛理公會派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>基督会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
-  </si>
-  <si>
-    <t>郡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>田纳西州行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%A1%94%E5%8A%AA%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>查塔努加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%85%8B%E6%96%AF%E7%B6%AD%E7%88%BE</t>
-  </si>
-  <si>
-    <t>諾克斯維爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%96%AF%E6%B3%A2%E7%89%B9</t>
-  </si>
-  <si>
-    <t>金斯波特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E9%80%8A%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>约翰逊城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%93%9D%E8%B0%83</t>
-  </si>
-  <si>
-    <t>蓝调</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%A1%E6%9D%91%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>乡村音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91</t>
-  </si>
-  <si>
-    <t>马丁·路德·金</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Elvis_Presley</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NASCAR</t>
-  </si>
-  <si>
-    <t>NASCAR</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A3%AB%E9%BA%A6%E9%82%A3</t>
-  </si>
-  <si>
-    <t>士麦那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2%E6%B1%BD%E8%BB%8A</t>
-  </si>
-  <si>
-    <t>日產汽車</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BD%A6</t>
-  </si>
-  <si>
-    <t>通用汽车</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%98%9F%E6%B1%BD%E8%BD%A6</t>
-  </si>
-  <si>
-    <t>土星汽车</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>田納西大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E8%8F%B2%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>曼菲斯大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E6%8A%80%E8%A1%93%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>田納西技術大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E5%BE%B7%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>范德堡大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>南方大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E7%BB%B4%E5%B0%94%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>马里维尔学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E6%96%90%E6%96%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>孟斐斯國際機場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E8%88%AA%E7%A9%BA</t>
-  </si>
-  <si>
-    <t>西北航空</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/24%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>24号州际公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/40%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>40號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/55%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>55號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/65%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>65號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/75%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>75號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/81%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>81號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NFL</t>
-  </si>
-  <si>
-    <t>NFL</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E6%B3%B0%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>田纳西泰坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NCAA</t>
-  </si>
-  <si>
-    <t>NCAA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>小聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E7%93%A6%E5%9F%BA%E9%87%80%E9%85%92%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>密爾瓦基釀酒人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E7%B4%85%E9%9B%80</t>
-  </si>
-  <si>
-    <t>聖路易紅雀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%B0%8F%E7%86%8A</t>
-  </si>
-  <si>
-    <t>芝加哥小熊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B0%B4%E6%89%8B</t>
-  </si>
-  <si>
-    <t>西雅圖水手</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E5%A0%A4%E7%B4%85%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>辛辛那堤紅人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%A4%AA%E7%A9%BA%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>休士頓太空人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%A4%A7%E9%83%BD%E6%9C%83</t>
-  </si>
-  <si>
-    <t>紐約大都會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E9%9B%99%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>明尼蘇達雙城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NBA</t>
-  </si>
-  <si>
-    <t>NBA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E6%96%90%E6%96%AF%E7%81%B0%E7%86%8A</t>
-  </si>
-  <si>
-    <t>孟斐斯灰熊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NHL</t>
-  </si>
-  <si>
-    <t>NHL</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%B6%AD%E6%96%AF%C2%B7%E6%99%AE%E9%87%8C%E6%96%AF%E8%90%8A</t>
-  </si>
-  <si>
-    <t>艾維斯·普里斯萊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A1%83%E8%8E%89%C2%B7%E5%B7%B4%E9%A0%93</t>
-  </si>
-  <si>
-    <t>桃莉·巴頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%8E%89%C2%B7%E5%B8%8C%E6%8B%89</t>
-  </si>
-  <si>
-    <t>麥莉·希拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%AF%94%E9%9B%B7%C2%B7%E5%B8%8C%E6%8B%89</t>
-  </si>
-  <si>
-    <t>羅比雷·希拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%A0%B9%C2%B7%E7%A6%8F%E5%85%8B%E6%96%AF</t>
-  </si>
-  <si>
-    <t>梅根·福克斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%BA%E5%B0%BC%C2%B7%E5%8D%A1%E4%BB%80</t>
-  </si>
-  <si>
-    <t>强尼·卡什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%C2%B7%E6%88%88%E5%B0%94</t>
-  </si>
-  <si>
-    <t>阿尔·戈尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%AF%E7%B8%BD%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>美國副總統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E6%96%AF%E6%B1%80%C2%B7%E6%8F%90%E5%A7%86%E5%B8%83%E8%90%8A%E5%85%8B</t>
-  </si>
-  <si>
-    <t>賈斯汀·提姆布萊克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%8E%89%C2%B7%E5%A8%81%E5%BB%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>海莉·威廉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%8B%92%E7%B5%B2</t>
-  </si>
-  <si>
-    <t>泰勒絲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E5%98%89%E6%BE%8D</t>
-  </si>
-  <si>
-    <t>宋嘉澍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E5%AD%90%E8%89%AF</t>
-  </si>
-  <si>
-    <t>宋子良</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亚拉巴马州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B2%BB%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佐治亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>Template talk-美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康乃狄克州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>特拉华州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>夏威夷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>爱达荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利诺伊州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>印第安纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>艾奥瓦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易斯安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>缅因州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻薩諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密歇根州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>蒙大拿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>內布拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>内华达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新罕布什尔州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新墨西哥州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄亥俄州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄勒冈州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>羅德島州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>犹他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛蒙特州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>华盛顿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>威斯康辛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>怀俄明州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聯邦地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>島嶼地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>美屬薩摩亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>關島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
-  </si>
-  <si>
-    <t>美国本土外小岛屿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>威克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>约翰斯顿环礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>中途島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
-  </si>
-  <si>
-    <t>金曼礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
-  </si>
-  <si>
-    <t>帕邁拉環礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>賈維斯島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>貝克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>豪蘭島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>纳瓦萨岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>巴霍努埃沃浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>塞拉尼拉浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>印第安保留地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>法国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I225"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2116,7 +2113,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -2606,7 +2603,7 @@
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
         <v>13</v>
@@ -2632,10 +2629,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2661,10 +2658,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2690,10 +2687,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2719,10 +2716,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2748,10 +2745,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2777,10 +2774,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2806,10 +2803,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2835,10 +2832,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2864,10 +2861,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2893,10 +2890,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2922,10 +2919,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2951,10 +2948,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2980,10 +2977,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3009,10 +3006,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3038,10 +3035,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -3067,10 +3064,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3096,10 +3093,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3125,10 +3122,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3154,10 +3151,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -3183,10 +3180,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -3212,10 +3209,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3241,10 +3238,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3270,10 +3267,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3299,10 +3296,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3328,10 +3325,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3357,10 +3354,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -3386,10 +3383,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3415,10 +3412,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3444,10 +3441,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3502,10 +3499,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3531,10 +3528,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3560,10 +3557,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3589,10 +3586,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3618,10 +3615,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3647,10 +3644,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3676,10 +3673,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3705,10 +3702,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3734,10 +3731,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3763,10 +3760,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3792,10 +3789,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" t="s">
         <v>69</v>
-      </c>
-      <c r="F74" t="s">
-        <v>70</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3850,10 +3847,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3879,10 +3876,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3908,10 +3905,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3937,10 +3934,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3966,10 +3963,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -3995,10 +3992,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4024,10 +4021,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4053,10 +4050,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4082,10 +4079,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4111,10 +4108,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4140,10 +4137,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4169,10 +4166,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -4198,10 +4195,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4227,10 +4224,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -4256,10 +4253,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4285,10 +4282,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4314,10 +4311,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4343,10 +4340,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4372,10 +4369,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4401,10 +4398,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4430,10 +4427,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4459,10 +4456,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4488,10 +4485,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4517,10 +4514,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4546,10 +4543,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4575,10 +4572,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4604,10 +4601,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4633,10 +4630,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4662,10 +4659,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4691,10 +4688,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4720,10 +4717,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4749,10 +4746,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4778,10 +4775,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4807,10 +4804,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4836,10 +4833,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4865,10 +4862,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4894,10 +4891,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4923,10 +4920,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4952,10 +4949,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4981,10 +4978,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5010,10 +5007,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5039,10 +5036,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5068,10 +5065,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5097,10 +5094,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5126,10 +5123,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5155,10 +5152,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5184,10 +5181,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5213,10 +5210,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5242,10 +5239,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5271,10 +5268,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5300,10 +5297,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5329,10 +5326,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5358,10 +5355,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5387,10 +5384,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5416,10 +5413,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5445,10 +5442,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5474,10 +5471,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5503,10 +5500,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5532,10 +5529,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5561,10 +5558,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>87</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5590,10 +5587,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5619,10 +5616,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5648,10 +5645,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5677,10 +5674,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5706,10 +5703,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5735,10 +5732,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5764,10 +5761,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5793,10 +5790,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5822,10 +5819,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5851,10 +5848,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5880,10 +5877,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -5909,10 +5906,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5938,13 +5935,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -5967,10 +5964,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5996,10 +5993,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6025,10 +6022,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6054,10 +6051,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>104</v>
+      </c>
+      <c r="F152" t="s">
         <v>105</v>
-      </c>
-      <c r="F152" t="s">
-        <v>106</v>
       </c>
       <c r="G152" t="n">
         <v>4</v>
@@ -6083,10 +6080,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6112,10 +6109,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6141,10 +6138,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6170,10 +6167,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6199,10 +6196,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6228,10 +6225,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>99</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6257,10 +6254,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6286,10 +6283,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6315,10 +6312,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6344,10 +6341,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6373,10 +6370,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6402,10 +6399,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6431,10 +6428,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>92</v>
+      </c>
+      <c r="F165" t="s">
         <v>93</v>
-      </c>
-      <c r="F165" t="s">
-        <v>94</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -6460,10 +6457,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6489,10 +6486,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6518,10 +6515,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6547,10 +6544,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6576,10 +6573,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6605,10 +6602,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6634,10 +6631,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>102</v>
+      </c>
+      <c r="F172" t="s">
         <v>103</v>
-      </c>
-      <c r="F172" t="s">
-        <v>104</v>
       </c>
       <c r="G172" t="n">
         <v>5</v>
@@ -6663,10 +6660,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>107</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6692,10 +6689,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6721,10 +6718,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6750,10 +6747,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6779,10 +6776,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6808,10 +6805,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6837,10 +6834,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6866,10 +6863,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6895,10 +6892,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F181" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6924,10 +6921,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6953,10 +6950,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6982,10 +6979,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7011,10 +7008,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7040,10 +7037,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7069,10 +7066,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7098,10 +7095,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F188" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7127,10 +7124,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7156,10 +7153,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7185,10 +7182,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7214,10 +7211,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7243,10 +7240,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>94</v>
+      </c>
+      <c r="F193" t="s">
         <v>95</v>
-      </c>
-      <c r="F193" t="s">
-        <v>96</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7272,10 +7269,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7301,10 +7298,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7330,10 +7327,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7359,10 +7356,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7388,10 +7385,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7417,10 +7414,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7446,10 +7443,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7475,10 +7472,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F201" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7504,10 +7501,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F202" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7533,10 +7530,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7562,10 +7559,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F204" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7591,10 +7588,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7620,10 +7617,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F206" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7649,10 +7646,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F207" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7678,10 +7675,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7707,10 +7704,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7736,10 +7733,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7765,10 +7762,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7794,10 +7791,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7823,10 +7820,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7852,10 +7849,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7881,10 +7878,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7910,10 +7907,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7939,10 +7936,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7968,10 +7965,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7997,10 +7994,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G219" t="n">
         <v>3</v>
@@ -8026,10 +8023,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8055,10 +8052,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8084,10 +8081,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8113,10 +8110,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F223" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8142,10 +8139,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8171,18 +8168,76 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>425</v>
+      </c>
+      <c r="F225" t="s">
+        <v>426</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="s">
+        <v>4</v>
+      </c>
+      <c r="I225" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>225</v>
+      </c>
+      <c r="E226" t="s">
+        <v>427</v>
+      </c>
+      <c r="F226" t="s">
+        <v>428</v>
+      </c>
+      <c r="G226" t="n">
+        <v>6</v>
+      </c>
+      <c r="H226" t="s">
+        <v>4</v>
+      </c>
+      <c r="I226" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227" t="n">
+        <v>226</v>
+      </c>
+      <c r="E227" t="s">
+        <v>427</v>
+      </c>
+      <c r="F227" t="s">
         <v>429</v>
       </c>
-      <c r="F225" t="s">
-        <v>430</v>
-      </c>
-      <c r="G225" t="n">
-        <v>1</v>
-      </c>
-      <c r="H225" t="s">
-        <v>4</v>
-      </c>
-      <c r="I225" t="n">
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="s">
+        <v>4</v>
+      </c>
+      <c r="I227" t="n">
         <v>3</v>
       </c>
     </row>
